--- a/version_8_tables.xlsx
+++ b/version_8_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antalertl/Desktop/r_projects/clusters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AB6DFB-A3A2-6D4E-8E8E-E23603842B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D92C2-4B85-A84E-840B-F65AC3B7931E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{501DC0D4-F8E5-F442-8068-75DF009784B8}"/>
   </bookViews>
@@ -1023,15 +1023,6 @@
     <t>Gamble Number picked</t>
   </si>
   <si>
-    <t>K-medoid using only categorical variables</t>
-  </si>
-  <si>
-    <t>K-medoid mixed categorical and continous variables</t>
-  </si>
-  <si>
-    <t>K-medoid using only continous variables</t>
-  </si>
-  <si>
     <t>K-medoid based on the original method, k = 2</t>
   </si>
   <si>
@@ -1048,6 +1039,15 @@
   </si>
   <si>
     <t>K-medoid with Gower distance, k = 4</t>
+  </si>
+  <si>
+    <t>Gower distance (cont. and categorical)</t>
+  </si>
+  <si>
+    <t>Gower distance (only categorical)</t>
+  </si>
+  <si>
+    <t>Euclidean distance (original)</t>
   </si>
 </sst>
 </file>
@@ -1428,24 +1428,24 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -2271,7 +2271,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2282,18 +2282,18 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C1" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -3350,25 +3350,25 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C1" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>

--- a/version_8_tables.xlsx
+++ b/version_8_tables.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antalertl/Desktop/r_projects/clusters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D92C2-4B85-A84E-840B-F65AC3B7931E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F624B-564A-8A44-AE87-C060B4803E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{501DC0D4-F8E5-F442-8068-75DF009784B8}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{501DC0D4-F8E5-F442-8068-75DF009784B8}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
     <sheet name="table2" sheetId="2" r:id="rId2"/>
     <sheet name="table3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="342">
   <si>
     <t xml:space="preserve"> p value</t>
   </si>
@@ -297,54 +297,30 @@
     <t xml:space="preserve"> 2 (N=130) </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.475</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2.693 </t>
   </si>
   <si>
     <t xml:space="preserve"> 2.838 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.138</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 6.567 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.723 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.357</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.706 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 8.408 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.511</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3.840 </t>
   </si>
   <si>
     <t xml:space="preserve"> 3.950 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.474</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 4.008 </t>
   </si>
   <si>
     <t xml:space="preserve"> 3.877 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.340</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3.861 </t>
   </si>
   <si>
@@ -372,66 +348,30 @@
     <t xml:space="preserve"> 0.252 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.323</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.063 </t>
   </si>
   <si>
     <t xml:space="preserve"> 0.085 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.289</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.613</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.067 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.141</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.185 </t>
   </si>
   <si>
     <t xml:space="preserve"> 0.135 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.044</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.154 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.577</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.076 </t>
   </si>
   <si>
     <t xml:space="preserve"> 0.092 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.338 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.003</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.223 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.369 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.319 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.454 </t>
   </si>
   <si>
@@ -1048,13 +988,88 @@
   </si>
   <si>
     <t>Euclidean distance (original)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.706</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.244  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.223  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.319  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.723</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.154</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.092</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.338</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1063,6 +1078,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1105,10 +1128,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1427,28 +1450,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A834EF-4A81-094E-99B6-33146F02B96A}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1484,14 +1507,14 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1512,19 +1535,19 @@
         <v>48</v>
       </c>
       <c r="I4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
         <v>87</v>
       </c>
-      <c r="J4" t="s">
-        <v>88</v>
-      </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1545,19 +1568,19 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>337</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1578,18 +1601,18 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>333</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>92</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
@@ -1608,22 +1631,13 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1644,19 +1658,19 @@
         <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1677,19 +1691,19 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -1710,18 +1724,18 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
@@ -1740,22 +1754,13 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" t="s">
-        <v>3</v>
-      </c>
-      <c r="J11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1776,10 +1781,10 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>338</v>
       </c>
       <c r="K12" t="s">
         <v>2</v>
@@ -1788,7 +1793,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -1809,19 +1814,19 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>106</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -1842,18 +1847,18 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
@@ -1872,22 +1877,13 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -1908,19 +1904,19 @@
         <v>74</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="J16" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -1941,19 +1937,19 @@
         <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J17" t="s">
-        <v>121</v>
+        <v>339</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -1974,18 +1970,18 @@
         <v>78</v>
       </c>
       <c r="I18" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>340</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
@@ -2004,22 +2000,13 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2040,19 +2027,19 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s">
-        <v>111</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -2076,16 +2063,16 @@
         <v>69</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -2106,18 +2093,18 @@
         <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="J22" t="s">
         <v>65</v>
       </c>
       <c r="K22" t="s">
-        <v>115</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" t="s">
@@ -2136,22 +2123,13 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -2172,19 +2150,19 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="J24" t="s">
-        <v>126</v>
+        <v>341</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -2205,19 +2183,19 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>335</v>
       </c>
       <c r="J25" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="K25" t="s">
-        <v>127</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
@@ -2238,13 +2216,13 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>336</v>
       </c>
       <c r="J26" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="K26" t="s">
-        <v>106</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -2271,7 +2249,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:N26"/>
+      <selection activeCell="C1" sqref="C1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2281,24 +2259,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C1" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="C1" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -2311,28 +2289,28 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="K2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="L2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="M2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
@@ -2340,7 +2318,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
@@ -2374,7 +2352,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2386,28 +2364,28 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="K4" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="L4" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="M4" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="N4" t="s">
         <v>2</v>
@@ -2416,7 +2394,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2428,28 +2406,28 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="I5" t="s">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="K5" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="L5" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="M5" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="N5" t="s">
         <v>2</v>
@@ -2458,7 +2436,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2470,28 +2448,28 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="L6" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M6" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="N6" t="s">
         <v>2</v>
@@ -2499,7 +2477,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
@@ -2539,7 +2517,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -2551,37 +2529,37 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="I8" t="s">
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="K8" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="L8" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="M8" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="N8" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -2593,28 +2571,28 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="K9" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="L9" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="M9" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="N9" t="s">
         <v>2</v>
@@ -2623,7 +2601,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -2635,36 +2613,36 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="K10" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="L10" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="M10" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="N10" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
@@ -2707,7 +2685,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -2719,28 +2697,28 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="I12" t="s">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="L12" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="N12" t="s">
         <v>2</v>
@@ -2749,7 +2727,7 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
@@ -2761,28 +2739,28 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="I13" t="s">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="K13" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="L13" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M13" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="N13" t="s">
         <v>2</v>
@@ -2791,7 +2769,7 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -2803,7 +2781,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -2815,13 +2793,13 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="K14" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="L14" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s">
         <v>28</v>
@@ -2832,7 +2810,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
@@ -2875,7 +2853,7 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -2887,28 +2865,28 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="I16" t="s">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="K16" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s">
         <v>2</v>
@@ -2917,7 +2895,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -2929,28 +2907,28 @@
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
         <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="I17" t="s">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s">
         <v>2</v>
@@ -2959,7 +2937,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -2971,28 +2949,28 @@
         <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G18" t="s">
         <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="I18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J18" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s">
         <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="M18" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="N18" t="s">
         <v>29</v>
@@ -3000,7 +2978,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
@@ -3043,7 +3021,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -3055,28 +3033,28 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
         <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
         <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="N20" t="s">
         <v>2</v>
@@ -3085,7 +3063,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -3097,7 +3075,7 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -3106,19 +3084,19 @@
         <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="K21" t="s">
         <v>31</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="N21" t="s">
         <v>2</v>
@@ -3127,7 +3105,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
@@ -3139,36 +3117,36 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="I22" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="J22" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
         <v>31</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M22" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="N22" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" t="s">
@@ -3211,7 +3189,7 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -3223,28 +3201,28 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="I24" t="s">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="K24" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="M24" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N24" t="s">
         <v>2</v>
@@ -3253,7 +3231,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -3265,28 +3243,28 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="I25" t="s">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="K25" t="s">
         <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="M25" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="N25" t="s">
         <v>2</v>
@@ -3295,7 +3273,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C26" t="s">
         <v>45</v>
@@ -3307,28 +3285,28 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="G26" t="s">
         <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="I26" t="s">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="K26" t="s">
         <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="M26" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="N26" t="s">
         <v>2</v>
@@ -3349,31 +3327,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0607FD5-976C-4A45-A25D-D46401CC2DE5}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C1" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="C1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3389,28 +3367,28 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K2" t="s">
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="M2" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
@@ -3418,14 +3396,14 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -3437,28 +3415,28 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="H4" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="I4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J4" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="K4" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="L4" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="M4" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="N4" t="s">
         <v>2</v>
@@ -3467,7 +3445,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
@@ -3479,28 +3457,28 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="G5" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="I5" t="s">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="K5" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="L5" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="M5" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="N5" t="s">
         <v>2</v>
@@ -3509,7 +3487,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
@@ -3521,28 +3499,28 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="G6" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="H6" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="I6" t="s">
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="K6" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="L6" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="M6" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="N6" t="s">
         <v>2</v>
@@ -3550,7 +3528,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
@@ -3593,7 +3571,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
         <v>56</v>
@@ -3605,37 +3583,37 @@
         <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="G8" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="H8" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="I8" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="J8" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="L8" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="M8" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="N8" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
@@ -3647,28 +3625,28 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="G9" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="H9" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="L9" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="M9" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="N9" t="s">
         <v>2</v>
@@ -3677,7 +3655,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
         <v>61</v>
@@ -3689,28 +3667,28 @@
         <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="G10" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="I10" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="J10" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="K10" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="L10" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="M10" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="N10" t="s">
         <v>33</v>
@@ -3718,7 +3696,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
@@ -3761,7 +3739,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
@@ -3773,28 +3751,28 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="H12" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="I12" t="s">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="L12" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="M12" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="N12" t="s">
         <v>2</v>
@@ -3803,7 +3781,7 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
@@ -3815,25 +3793,25 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="G13" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="I13" t="s">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="K13" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="M13" t="s">
         <v>28</v>
@@ -3845,7 +3823,7 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -3857,25 +3835,25 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="G14" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="H14" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="I14" t="s">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="K14" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="L14" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="M14" t="s">
         <v>28</v>
@@ -3886,7 +3864,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" t="s">
@@ -3929,7 +3907,7 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C16" t="s">
         <v>75</v>
@@ -3941,28 +3919,28 @@
         <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="H16" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="I16" t="s">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="K16" t="s">
         <v>43</v>
       </c>
       <c r="L16" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="M16" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s">
         <v>2</v>
@@ -3971,7 +3949,7 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -3983,28 +3961,28 @@
         <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="G17" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="K17" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="L17" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="M17" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="N17" t="s">
         <v>2</v>
@@ -4013,7 +3991,7 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
@@ -4025,36 +4003,36 @@
         <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="H18" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="I18" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="J18" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="K18" t="s">
         <v>31</v>
       </c>
       <c r="L18" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="M18" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" t="s">
@@ -4097,7 +4075,7 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C20" t="s">
         <v>69</v>
@@ -4109,28 +4087,28 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="G20" t="s">
         <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="I20" t="s">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
         <v>28</v>
       </c>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="M20" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="N20" t="s">
         <v>2</v>
@@ -4139,7 +4117,7 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
@@ -4151,28 +4129,28 @@
         <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="I21" t="s">
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="K21" t="s">
         <v>28</v>
       </c>
       <c r="L21" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="M21" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="N21" t="s">
         <v>2</v>
@@ -4181,7 +4159,7 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C22" t="s">
         <v>73</v>
@@ -4193,25 +4171,25 @@
         <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="I22" t="s">
         <v>74</v>
       </c>
       <c r="J22" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s">
         <v>28</v>
       </c>
       <c r="L22" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="M22" t="s">
         <v>31</v>
@@ -4222,7 +4200,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" t="s">
@@ -4265,7 +4243,7 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C24" t="s">
         <v>81</v>
@@ -4277,28 +4255,28 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="I24" t="s">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="K24" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="M24" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="N24" t="s">
         <v>2</v>
@@ -4307,7 +4285,7 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C25" t="s">
         <v>82</v>
@@ -4319,28 +4297,28 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="I25" t="s">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="K25" t="s">
         <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="M25" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="N25" t="s">
         <v>2</v>
@@ -4349,7 +4327,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C26" t="s">
         <v>83</v>
@@ -4361,28 +4339,28 @@
         <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
         <v>28</v>
       </c>
       <c r="H26" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="I26" t="s">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s">
         <v>28</v>
       </c>
       <c r="L26" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="M26" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="N26" t="s">
         <v>2</v>
